--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_8_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46181.49078950371</v>
+        <v>9190116.667111235</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46181.49078950371</v>
+        <v>9190116.667111235</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958833019.0862406</v>
+        <v>39174887.97376943</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7908.641586399621</v>
+        <v>862950.5052562171</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15333.76242779785</v>
+        <v>1650061.155464088</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22758.88326919608</v>
+        <v>2437171.805671961</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30456.75689288765</v>
+        <v>3232981.529819227</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38110.91657718527</v>
+        <v>4020092.180027099</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45765.07626148289</v>
+        <v>4807202.830234971</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53419.23594578051</v>
+        <v>5594313.48044284</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61803.82229674479</v>
+        <v>6416661.683782021</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69461.22884972929</v>
+        <v>7177233.854797971</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>77251.99459463297</v>
+        <v>7964344.505005839</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>85042.76033953663</v>
+        <v>8751455.155213714</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>92653.2060844403</v>
+        <v>9529866.731482197</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>100307.3657687379</v>
+        <v>10316977.38169007</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>107961.5254530355</v>
+        <v>11104088.03189795</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>115615.6851373331</v>
+        <v>11891198.68210583</v>
       </c>
     </row>
   </sheetData>
